--- a/_data/BTCUSDT_4h.xlsx
+++ b/_data/BTCUSDT_4h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1084"/>
+  <dimension ref="A1:F1127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22081,6 +22081,866 @@
         <v>1630.00928</v>
       </c>
     </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1085">
+        <v>59396</v>
+      </c>
+      <c r="C1085">
+        <v>59944.07</v>
+      </c>
+      <c r="D1085">
+        <v>57946.01</v>
+      </c>
+      <c r="E1085">
+        <v>58094.99</v>
+      </c>
+      <c r="F1085">
+        <v>10365.98684</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1086">
+        <v>58095</v>
+      </c>
+      <c r="C1086">
+        <v>59371</v>
+      </c>
+      <c r="D1086">
+        <v>57701.1</v>
+      </c>
+      <c r="E1086">
+        <v>58700.02</v>
+      </c>
+      <c r="F1086">
+        <v>6417.58601</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1087">
+        <v>58700.02</v>
+      </c>
+      <c r="C1087">
+        <v>59298.89</v>
+      </c>
+      <c r="D1087">
+        <v>58700</v>
+      </c>
+      <c r="E1087">
+        <v>59263</v>
+      </c>
+      <c r="F1087">
+        <v>1398.19227</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1088">
+        <v>59123.99</v>
+      </c>
+      <c r="C1088">
+        <v>59462.38</v>
+      </c>
+      <c r="D1088">
+        <v>59070.4</v>
+      </c>
+      <c r="E1088">
+        <v>59232.01</v>
+      </c>
+      <c r="F1088">
+        <v>1647.80492</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1089">
+        <v>59232.01</v>
+      </c>
+      <c r="C1089">
+        <v>59350</v>
+      </c>
+      <c r="D1089">
+        <v>59043.12</v>
+      </c>
+      <c r="E1089">
+        <v>59095</v>
+      </c>
+      <c r="F1089">
+        <v>1230.67061</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1090">
+        <v>59095.01</v>
+      </c>
+      <c r="C1090">
+        <v>59188.9</v>
+      </c>
+      <c r="D1090">
+        <v>58831.88</v>
+      </c>
+      <c r="E1090">
+        <v>59120.99</v>
+      </c>
+      <c r="F1090">
+        <v>1404.08788</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1091">
+        <v>59120.99</v>
+      </c>
+      <c r="C1091">
+        <v>59244.04</v>
+      </c>
+      <c r="D1091">
+        <v>58892.15</v>
+      </c>
+      <c r="E1091">
+        <v>59006.54</v>
+      </c>
+      <c r="F1091">
+        <v>1774.98601</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1092">
+        <v>59006.54</v>
+      </c>
+      <c r="C1092">
+        <v>59140.01</v>
+      </c>
+      <c r="D1092">
+        <v>58744</v>
+      </c>
+      <c r="E1092">
+        <v>58856</v>
+      </c>
+      <c r="F1092">
+        <v>1637.2679</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1093">
+        <v>58856</v>
+      </c>
+      <c r="C1093">
+        <v>58978</v>
+      </c>
+      <c r="D1093">
+        <v>58763.29</v>
+      </c>
+      <c r="E1093">
+        <v>58977.25</v>
+      </c>
+      <c r="F1093">
+        <v>490.02987</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1094">
+        <v>58974</v>
+      </c>
+      <c r="C1094">
+        <v>59076.59</v>
+      </c>
+      <c r="D1094">
+        <v>58276.01</v>
+      </c>
+      <c r="E1094">
+        <v>58524.21</v>
+      </c>
+      <c r="F1094">
+        <v>2314.00203</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1095">
+        <v>58524.21</v>
+      </c>
+      <c r="C1095">
+        <v>58599.98</v>
+      </c>
+      <c r="D1095">
+        <v>57777</v>
+      </c>
+      <c r="E1095">
+        <v>58478.64</v>
+      </c>
+      <c r="F1095">
+        <v>3366.16193</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1096">
+        <v>58478.64</v>
+      </c>
+      <c r="C1096">
+        <v>58504.81</v>
+      </c>
+      <c r="D1096">
+        <v>58126.98</v>
+      </c>
+      <c r="E1096">
+        <v>58216</v>
+      </c>
+      <c r="F1096">
+        <v>830.64067</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1097">
+        <v>58240.51</v>
+      </c>
+      <c r="C1097">
+        <v>58360.38</v>
+      </c>
+      <c r="D1097">
+        <v>57201</v>
+      </c>
+      <c r="E1097">
+        <v>58217</v>
+      </c>
+      <c r="F1097">
+        <v>5911.39633</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1098">
+        <v>58217</v>
+      </c>
+      <c r="C1098">
+        <v>58350</v>
+      </c>
+      <c r="D1098">
+        <v>58090.01</v>
+      </c>
+      <c r="E1098">
+        <v>58161.11</v>
+      </c>
+      <c r="F1098">
+        <v>598.26918</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1099">
+        <v>58514.01</v>
+      </c>
+      <c r="C1099">
+        <v>58656.77</v>
+      </c>
+      <c r="D1099">
+        <v>57205</v>
+      </c>
+      <c r="E1099">
+        <v>57301.86</v>
+      </c>
+      <c r="F1099">
+        <v>3924.2555</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1100">
+        <v>57301.77</v>
+      </c>
+      <c r="C1100">
+        <v>57767.14</v>
+      </c>
+      <c r="D1100">
+        <v>57128</v>
+      </c>
+      <c r="E1100">
+        <v>57742.01</v>
+      </c>
+      <c r="F1100">
+        <v>4604.88008</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1101">
+        <v>57742</v>
+      </c>
+      <c r="C1101">
+        <v>57987.99</v>
+      </c>
+      <c r="D1101">
+        <v>57362.06</v>
+      </c>
+      <c r="E1101">
+        <v>57547.99</v>
+      </c>
+      <c r="F1101">
+        <v>2616.60584</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1102">
+        <v>57548</v>
+      </c>
+      <c r="C1102">
+        <v>58680.76</v>
+      </c>
+      <c r="D1102">
+        <v>57520.12</v>
+      </c>
+      <c r="E1102">
+        <v>58395.01</v>
+      </c>
+      <c r="F1102">
+        <v>5038.61536</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1103">
+        <v>58422.01</v>
+      </c>
+      <c r="C1103">
+        <v>58509</v>
+      </c>
+      <c r="D1103">
+        <v>58256.1</v>
+      </c>
+      <c r="E1103">
+        <v>58299.01</v>
+      </c>
+      <c r="F1103">
+        <v>490.99214</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1104">
+        <v>58537.99</v>
+      </c>
+      <c r="C1104">
+        <v>58666.64</v>
+      </c>
+      <c r="D1104">
+        <v>58293.12</v>
+      </c>
+      <c r="E1104">
+        <v>58439.99</v>
+      </c>
+      <c r="F1104">
+        <v>2856.4724</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1105">
+        <v>58440.03</v>
+      </c>
+      <c r="C1105">
+        <v>58571</v>
+      </c>
+      <c r="D1105">
+        <v>58384.61</v>
+      </c>
+      <c r="E1105">
+        <v>58564.01</v>
+      </c>
+      <c r="F1105">
+        <v>126.00293</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1106">
+        <v>59132.12</v>
+      </c>
+      <c r="C1106">
+        <v>59809.65</v>
+      </c>
+      <c r="D1106">
+        <v>59021.62</v>
+      </c>
+      <c r="E1106">
+        <v>59110.99</v>
+      </c>
+      <c r="F1106">
+        <v>3188.73817</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1107">
+        <v>59111</v>
+      </c>
+      <c r="C1107">
+        <v>59259</v>
+      </c>
+      <c r="D1107">
+        <v>58872</v>
+      </c>
+      <c r="E1107">
+        <v>59112</v>
+      </c>
+      <c r="F1107">
+        <v>2786.55038</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1108">
+        <v>59112.01</v>
+      </c>
+      <c r="C1108">
+        <v>59195.63</v>
+      </c>
+      <c r="D1108">
+        <v>58717</v>
+      </c>
+      <c r="E1108">
+        <v>59072</v>
+      </c>
+      <c r="F1108">
+        <v>2434.05695</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1109">
+        <v>59072.01</v>
+      </c>
+      <c r="C1109">
+        <v>59350</v>
+      </c>
+      <c r="D1109">
+        <v>57568</v>
+      </c>
+      <c r="E1109">
+        <v>57725</v>
+      </c>
+      <c r="F1109">
+        <v>8190.06416</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1110">
+        <v>57725.01</v>
+      </c>
+      <c r="C1110">
+        <v>58251.09</v>
+      </c>
+      <c r="D1110">
+        <v>57589.01</v>
+      </c>
+      <c r="E1110">
+        <v>58046</v>
+      </c>
+      <c r="F1110">
+        <v>3746.4115</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1111">
+        <v>58045.99</v>
+      </c>
+      <c r="C1111">
+        <v>58247</v>
+      </c>
+      <c r="D1111">
+        <v>57415</v>
+      </c>
+      <c r="E1111">
+        <v>57487.73</v>
+      </c>
+      <c r="F1111">
+        <v>2482.36331</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1112">
+        <v>57487.74</v>
+      </c>
+      <c r="C1112">
+        <v>57943.53</v>
+      </c>
+      <c r="D1112">
+        <v>55606</v>
+      </c>
+      <c r="E1112">
+        <v>56653.98</v>
+      </c>
+      <c r="F1112">
+        <v>10008.5459</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1113">
+        <v>56653.99</v>
+      </c>
+      <c r="C1113">
+        <v>56881</v>
+      </c>
+      <c r="D1113">
+        <v>56201</v>
+      </c>
+      <c r="E1113">
+        <v>56746</v>
+      </c>
+      <c r="F1113">
+        <v>5570.10401</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1114">
+        <v>56746</v>
+      </c>
+      <c r="C1114">
+        <v>56909.94</v>
+      </c>
+      <c r="D1114">
+        <v>56453</v>
+      </c>
+      <c r="E1114">
+        <v>56573</v>
+      </c>
+      <c r="F1114">
+        <v>3012.85274</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1115">
+        <v>56573</v>
+      </c>
+      <c r="C1115">
+        <v>58181.43</v>
+      </c>
+      <c r="D1115">
+        <v>56187.61</v>
+      </c>
+      <c r="E1115">
+        <v>58134</v>
+      </c>
+      <c r="F1115">
+        <v>9903.94203</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1116">
+        <v>58134</v>
+      </c>
+      <c r="C1116">
+        <v>58519</v>
+      </c>
+      <c r="D1116">
+        <v>57646</v>
+      </c>
+      <c r="E1116">
+        <v>57967.15</v>
+      </c>
+      <c r="F1116">
+        <v>5036.31198</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1117">
+        <v>58058</v>
+      </c>
+      <c r="C1117">
+        <v>58390</v>
+      </c>
+      <c r="D1117">
+        <v>57792.46</v>
+      </c>
+      <c r="E1117">
+        <v>57970.9</v>
+      </c>
+      <c r="F1117">
+        <v>1780.64431</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6">
+      <c r="A1118" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1118">
+        <v>57970.9</v>
+      </c>
+      <c r="C1118">
+        <v>58327.07</v>
+      </c>
+      <c r="D1118">
+        <v>56891.07</v>
+      </c>
+      <c r="E1118">
+        <v>57135.42</v>
+      </c>
+      <c r="F1118">
+        <v>4718.02876</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6">
+      <c r="A1119" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1119">
+        <v>57135.42</v>
+      </c>
+      <c r="C1119">
+        <v>57291.1</v>
+      </c>
+      <c r="D1119">
+        <v>56541.68</v>
+      </c>
+      <c r="E1119">
+        <v>57155.1</v>
+      </c>
+      <c r="F1119">
+        <v>3337.56535</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6">
+      <c r="A1120" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1120">
+        <v>57155.1</v>
+      </c>
+      <c r="C1120">
+        <v>57232</v>
+      </c>
+      <c r="D1120">
+        <v>56623</v>
+      </c>
+      <c r="E1120">
+        <v>56698.01</v>
+      </c>
+      <c r="F1120">
+        <v>2824.97809</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6">
+      <c r="A1121" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1121">
+        <v>56698.01</v>
+      </c>
+      <c r="C1121">
+        <v>57350</v>
+      </c>
+      <c r="D1121">
+        <v>55817.51</v>
+      </c>
+      <c r="E1121">
+        <v>55976.01</v>
+      </c>
+      <c r="F1121">
+        <v>10200.08948</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6">
+      <c r="A1122" s="2">
+        <v>45540.66666666666</v>
+      </c>
+      <c r="B1122">
+        <v>55976.01</v>
+      </c>
+      <c r="C1122">
+        <v>56710</v>
+      </c>
+      <c r="D1122">
+        <v>55800</v>
+      </c>
+      <c r="E1122">
+        <v>56060.01</v>
+      </c>
+      <c r="F1122">
+        <v>4306.58366</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6">
+      <c r="A1123" s="2">
+        <v>45540.83333333334</v>
+      </c>
+      <c r="B1123">
+        <v>56060</v>
+      </c>
+      <c r="C1123">
+        <v>56259.97</v>
+      </c>
+      <c r="D1123">
+        <v>55643.65</v>
+      </c>
+      <c r="E1123">
+        <v>56180</v>
+      </c>
+      <c r="F1123">
+        <v>2419.66879</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6">
+      <c r="A1124" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1124">
+        <v>56180</v>
+      </c>
+      <c r="C1124">
+        <v>56858.88</v>
+      </c>
+      <c r="D1124">
+        <v>55989</v>
+      </c>
+      <c r="E1124">
+        <v>56588</v>
+      </c>
+      <c r="F1124">
+        <v>3089.15324</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6">
+      <c r="A1125" s="2">
+        <v>45541.16666666666</v>
+      </c>
+      <c r="B1125">
+        <v>56588.01</v>
+      </c>
+      <c r="C1125">
+        <v>56747.91</v>
+      </c>
+      <c r="D1125">
+        <v>55280</v>
+      </c>
+      <c r="E1125">
+        <v>55804.29</v>
+      </c>
+      <c r="F1125">
+        <v>5943.85272</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6">
+      <c r="A1126" s="2">
+        <v>45541.33333333334</v>
+      </c>
+      <c r="B1126">
+        <v>55804.28</v>
+      </c>
+      <c r="C1126">
+        <v>56262.11</v>
+      </c>
+      <c r="D1126">
+        <v>55639</v>
+      </c>
+      <c r="E1126">
+        <v>55999.09</v>
+      </c>
+      <c r="F1126">
+        <v>4116.26102</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6">
+      <c r="A1127" s="2">
+        <v>45541.5</v>
+      </c>
+      <c r="B1127">
+        <v>55999.09</v>
+      </c>
+      <c r="C1127">
+        <v>57008</v>
+      </c>
+      <c r="D1127">
+        <v>55653.42</v>
+      </c>
+      <c r="E1127">
+        <v>56543.99</v>
+      </c>
+      <c r="F1127">
+        <v>6638.02432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
